--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vickyayusoacedo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vickyayusoacedo/Documents/GitHub/Prosthetics-co/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="14540"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -230,9 +230,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Adress</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -324,12 +321,15 @@
   </si>
   <si>
     <t>Payment</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -703,11 +703,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="82" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,7 +728,7 @@
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -848,7 +848,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -866,7 +866,7 @@
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>15</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F29" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1022,7 +1022,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>15</v>
@@ -1173,10 +1173,10 @@
         <v>47</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -1335,7 +1335,7 @@
         <v>60</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>42</v>
@@ -1365,7 +1365,7 @@
         <v>15</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -1482,7 +1482,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -1490,22 +1490,22 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
         <v>69</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>70</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>71</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>72</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>73</v>
-      </c>
-      <c r="G60" t="s">
-        <v>74</v>
       </c>
       <c r="H60" s="6"/>
     </row>
@@ -1514,19 +1514,19 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" t="s">
         <v>75</v>
-      </c>
-      <c r="C61" t="s">
-        <v>76</v>
       </c>
       <c r="D61">
         <v>28100</v>
       </c>
       <c r="E61" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" t="s">
         <v>77</v>
-      </c>
-      <c r="F61" t="s">
-        <v>78</v>
       </c>
       <c r="G61">
         <v>54</v>
@@ -1537,19 +1537,19 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" t="s">
         <v>79</v>
-      </c>
-      <c r="C62" t="s">
-        <v>80</v>
       </c>
       <c r="D62">
         <v>48003</v>
       </c>
       <c r="E62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G62">
         <v>647</v>
@@ -1560,19 +1560,19 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" t="s">
         <v>82</v>
-      </c>
-      <c r="C63" t="s">
-        <v>83</v>
       </c>
       <c r="D63">
         <v>49304</v>
       </c>
       <c r="E63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G63">
         <v>45</v>
@@ -1583,19 +1583,19 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" t="s">
         <v>85</v>
-      </c>
-      <c r="C64" t="s">
-        <v>86</v>
       </c>
       <c r="D64">
         <v>23483</v>
       </c>
       <c r="E64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -1606,19 +1606,19 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" t="s">
         <v>88</v>
-      </c>
-      <c r="C65" t="s">
-        <v>89</v>
       </c>
       <c r="D65">
         <v>43385</v>
       </c>
       <c r="E65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G65">
         <v>98</v>
